--- a/biology/Zoologie/Fenestrulina/Fenestrulina.xlsx
+++ b/biology/Zoologie/Fenestrulina/Fenestrulina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fenestrulina est un genre d'ectoproctes, bryozoaire formant des colonies encroutantes[2], de la famille des Microporellidae, classée dans l'ordre Cheilostomatida. Ces organismes contribuent, modestement, à la filtration de l'eau et au stockage du carbone. Ce genre est assez ubiquiste, trouvé des eaux tempérées à très froides (en zone polaire, antarctique notamment[3],[4]), en passant par les eaux tropicales (ex : Fenestrulina commensalis découverte au Brésil à 5-10 m de profondeur en 2008).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenestrulina est un genre d'ectoproctes, bryozoaire formant des colonies encroutantes, de la famille des Microporellidae, classée dans l'ordre Cheilostomatida. Ces organismes contribuent, modestement, à la filtration de l'eau et au stockage du carbone. Ce genre est assez ubiquiste, trouvé des eaux tempérées à très froides (en zone polaire, antarctique notamment,), en passant par les eaux tropicales (ex : Fenestrulina commensalis découverte au Brésil à 5-10 m de profondeur en 2008).
 Certaines espèces comme Fenestrulina delicia ont été introduites hors de leur aire naturelle de répartition (introduite en Europe dans ce cas). 
-On en connait quelques espèces fossiles[5].
+On en connait quelques espèces fossiles.
 </t>
         </is>
       </c>
@@ -513,18 +525,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fenestrulina asturiasensis[6]
-Fenestrulina barrosoi[7]
-Fenestrulina commensalis[8]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fenestrulina asturiasensis
+Fenestrulina barrosoi
+Fenestrulina commensalis
 Fenestrulina cervicornis
 Fenestrulina crystallina
 Fenestrulina delicia
 Fenestrulina juani
 Fenestrulina littoralis
 Fenestrulina malusii
-Fenestrulina malusii var. thyreophora [9]
+Fenestrulina malusii var. thyreophora 
 Fenestrulina rugula</t>
         </is>
       </c>
